--- a/Driver.xlsx
+++ b/Driver.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF148F8-3E38-41A8-9D59-EB6EBDA04CDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C2AEA3-E38E-4220-8D4A-333229D118E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>UserName</t>
   </si>
@@ -32,6 +32,48 @@
   </si>
   <si>
     <t>Winter@123</t>
+  </si>
+  <si>
+    <t>FrmWHSNumber</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>F100000037</t>
+  </si>
+  <si>
+    <t>ToWHSNumber</t>
+  </si>
+  <si>
+    <t>OrderTypeValue</t>
+  </si>
+  <si>
+    <t>DI4</t>
+  </si>
+  <si>
+    <t>190220</t>
+  </si>
+  <si>
+    <t>PlannedDelayDate</t>
+  </si>
+  <si>
+    <t>PlannedQtyval</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>DeliveryPickupval</t>
+  </si>
+  <si>
+    <t>CPU</t>
   </si>
 </sst>
 </file>
@@ -69,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,14 +134,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,30 +435,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
